--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirk\Google Drive\Enjoyment\Hobbies\GitHub Projects\QWOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BD3886-10F2-CB4C-8A16-252BD28F8A0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9ABD60-EF80-43A6-8EE7-B37F8AB976E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -663,24 +662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -691,6 +672,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,380 +1006,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADBB4D-0045-EA4E-AF74-4D1AF6D1816D}">
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BH19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BP24" sqref="BP24"/>
+      <selection pane="bottomRight" activeCell="BH39" sqref="BH39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="3.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" customWidth="1"/>
-    <col min="29" max="29" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="3.6640625" customWidth="1"/>
-    <col min="33" max="33" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" customWidth="1"/>
-    <col min="35" max="35" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" customWidth="1"/>
-    <col min="37" max="37" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="3.6640625" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.6640625" customWidth="1"/>
-    <col min="43" max="43" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="3.6640625" customWidth="1"/>
-    <col min="45" max="45" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.6640625" customWidth="1"/>
-    <col min="47" max="47" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="3.6640625" customWidth="1"/>
-    <col min="49" max="49" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="3.6640625" customWidth="1"/>
-    <col min="51" max="51" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="3.6640625" customWidth="1"/>
-    <col min="53" max="53" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="3.6640625" customWidth="1"/>
-    <col min="55" max="55" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="3.6640625" customWidth="1"/>
-    <col min="57" max="57" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="3.6640625" customWidth="1"/>
-    <col min="59" max="59" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="3.6640625" customWidth="1"/>
-    <col min="61" max="61" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="3.6640625" customWidth="1"/>
-    <col min="63" max="63" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="3.6640625" customWidth="1"/>
-    <col min="65" max="65" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="1.6640625" customWidth="1"/>
-    <col min="67" max="67" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="54" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="1.625" customWidth="1"/>
+    <col min="67" max="67" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C1" s="6"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="7" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="7" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="7" t="s">
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="9"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="22"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="10" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11" t="s">
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11" t="s">
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="12"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="19"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14" t="s">
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14" t="s">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14" t="s">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14" t="s">
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14" t="s">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="13" t="s">
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14" t="s">
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14" t="s">
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14" t="s">
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="13" t="s">
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14" t="s">
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14" t="s">
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14" t="s">
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14" t="s">
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14" t="s">
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14" t="s">
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14" t="s">
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BM3" s="15"/>
+      <c r="BM3" s="9"/>
       <c r="BO3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1426,7 +1425,7 @@
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1510,7 +1509,7 @@
       <c r="AQ4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="16" t="s">
+      <c r="AR4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="AS4" s="2" t="s">
@@ -1546,7 +1545,7 @@
       <c r="BC4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD4" s="16" t="s">
+      <c r="BD4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="BE4" s="2" t="s">
@@ -1586,7 +1585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1781,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="BM5" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BO5" t="s">
         <v>14</v>
       </c>
-      <c r="BP5" s="18" t="s">
+      <c r="BP5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="BQ5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1822,13 +1821,13 @@
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1840,13 +1839,13 @@
       <c r="O6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="S6" s="2" t="s">
@@ -1858,7 +1857,7 @@
       <c r="U6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
@@ -1876,7 +1875,7 @@
       <c r="AA6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AC6" s="2" t="s">
@@ -1906,13 +1905,13 @@
       <c r="AK6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AL6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AM6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN6" s="19" t="s">
+      <c r="AN6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -1924,13 +1923,13 @@
       <c r="AQ6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AR6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="AU6" s="2" t="s">
@@ -1942,7 +1941,7 @@
       <c r="AW6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AX6" s="19" t="s">
+      <c r="AX6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="AY6" s="2" t="s">
@@ -1960,7 +1959,7 @@
       <c r="BC6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD6" s="19" t="s">
+      <c r="BD6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="BE6" s="2" t="s">
@@ -1993,14 +1992,14 @@
       <c r="BO6" t="s">
         <v>14</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BP6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="BQ6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2029,85 +2028,85 @@
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="20" t="s">
+      <c r="M7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="20" t="s">
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="20" t="s">
+      <c r="Q7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="20">
-        <v>0</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="20">
-        <v>0</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="20">
+      <c r="S7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="14">
         <v>0</v>
       </c>
       <c r="AK7" s="3" t="s">
@@ -2200,14 +2199,14 @@
       <c r="BO7" t="s">
         <v>14</v>
       </c>
-      <c r="BP7" s="18" t="s">
+      <c r="BP7" s="12" t="s">
         <v>73</v>
       </c>
       <c r="BQ7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2236,85 +2235,85 @@
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="20" t="s">
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="20" t="s">
+      <c r="Q8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="20" t="s">
+      <c r="S8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="20">
+      <c r="U8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="14">
         <v>0</v>
       </c>
       <c r="AK8" s="3" t="s">
@@ -2407,14 +2406,14 @@
       <c r="BO8" t="s">
         <v>14</v>
       </c>
-      <c r="BP8" s="18" t="s">
+      <c r="BP8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="BQ8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2443,85 +2442,85 @@
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="20">
-        <v>0</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="20" t="s">
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="20" t="s">
+      <c r="W9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Y9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AA9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="20" t="s">
+      <c r="AA9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AC9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AE9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="20">
+      <c r="AE9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="14">
         <v>0</v>
       </c>
       <c r="AK9" s="3" t="s">
@@ -2614,14 +2613,14 @@
       <c r="BO9" t="s">
         <v>14</v>
       </c>
-      <c r="BP9" s="18" t="s">
+      <c r="BP9" s="12" t="s">
         <v>74</v>
       </c>
       <c r="BQ9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2650,85 +2649,85 @@
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="20">
-        <v>0</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="20">
-        <v>0</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="20">
-        <v>0</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="20" t="s">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AC10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AC10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AE10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AG10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="20">
+      <c r="AG10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="14">
         <v>0</v>
       </c>
       <c r="AK10" s="3" t="s">
@@ -2821,14 +2820,14 @@
       <c r="BO10" t="s">
         <v>14</v>
       </c>
-      <c r="BP10" s="18" t="s">
+      <c r="BP10" s="12" t="s">
         <v>75</v>
       </c>
       <c r="BQ10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2857,85 +2856,85 @@
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="K11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="20">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="20">
-        <v>0</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="20">
+      <c r="O11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="14">
         <v>0</v>
       </c>
       <c r="AK11" s="3" t="s">
@@ -3035,7 +3034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -3064,85 +3063,85 @@
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
         <v>1</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="20">
-        <v>0</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="20">
+      <c r="O12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="14">
         <v>0</v>
       </c>
       <c r="AK12" s="3" t="s">
@@ -3235,14 +3234,14 @@
       <c r="BO12" t="s">
         <v>14</v>
       </c>
-      <c r="BP12" s="18" t="s">
+      <c r="BP12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="BQ12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -3271,85 +3270,85 @@
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="14">
         <v>-1</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="22" t="s">
+      <c r="K13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="O13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="14">
         <v>1</v>
       </c>
-      <c r="Q13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="20">
-        <v>0</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="22" t="s">
+      <c r="Q13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="20">
-        <v>0</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X13" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="20">
+      <c r="U13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="14">
         <v>0</v>
       </c>
       <c r="AK13" s="3" t="s">
@@ -3442,14 +3441,14 @@
       <c r="BO13" t="s">
         <v>14</v>
       </c>
-      <c r="BP13" s="18" t="s">
+      <c r="BP13" s="12" t="s">
         <v>87</v>
       </c>
       <c r="BQ13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -3478,85 +3477,85 @@
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14">
         <v>-1</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="22" t="s">
+      <c r="M14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="20">
+      <c r="O14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="14">
         <v>1</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T14" s="22" t="s">
+      <c r="S14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="U14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="20">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="20">
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="14">
         <v>0</v>
       </c>
       <c r="AK14" s="3" t="s">
@@ -3649,14 +3648,14 @@
       <c r="BO14" t="s">
         <v>14</v>
       </c>
-      <c r="BP14" s="18" t="s">
+      <c r="BP14" s="12" t="s">
         <v>86</v>
       </c>
       <c r="BQ14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -3685,85 +3684,85 @@
       <c r="I15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="20">
-        <v>0</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="20">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="14">
         <v>-1</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="20">
-        <v>0</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" s="22" t="s">
+      <c r="Q15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="20">
+      <c r="U15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="14">
         <v>1</v>
       </c>
-      <c r="W15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="22" t="s">
+      <c r="W15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AA15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="20">
+      <c r="AA15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="14">
         <v>0</v>
       </c>
       <c r="AK15" s="3" t="s">
@@ -3856,14 +3855,14 @@
       <c r="BO15" t="s">
         <v>14</v>
       </c>
-      <c r="BP15" s="18" t="s">
+      <c r="BP15" s="12" t="s">
         <v>88</v>
       </c>
       <c r="BQ15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3892,85 +3891,85 @@
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="20">
-        <v>0</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="20">
-        <v>0</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="20">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="14">
         <v>-1</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="22" t="s">
+      <c r="S16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="20">
-        <v>0</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="20">
+      <c r="U16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="14">
         <v>1</v>
       </c>
-      <c r="Y16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="22" t="s">
+      <c r="Y16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AA16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="20">
+      <c r="AA16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="14">
         <v>0</v>
       </c>
       <c r="AK16" s="3" t="s">
@@ -4063,14 +4062,14 @@
       <c r="BO16" t="s">
         <v>14</v>
       </c>
-      <c r="BP16" s="18" t="s">
+      <c r="BP16" s="12" t="s">
         <v>89</v>
       </c>
       <c r="BQ16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -4099,85 +4098,85 @@
       <c r="I17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="20">
-        <v>0</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="20">
-        <v>0</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="20">
-        <v>0</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="20">
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="14">
         <v>-1</v>
       </c>
-      <c r="W17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="22" t="s">
+      <c r="W17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AA17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="20">
+      <c r="AA17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="14">
         <v>1</v>
       </c>
-      <c r="AC17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF17" s="22" t="s">
+      <c r="AC17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AG17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ17" s="20">
+      <c r="AG17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="14">
         <v>0</v>
       </c>
       <c r="AK17" s="3" t="s">
@@ -4270,14 +4269,14 @@
       <c r="BO17" t="s">
         <v>14</v>
       </c>
-      <c r="BP17" s="18" t="s">
+      <c r="BP17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="BQ17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4306,85 +4305,85 @@
       <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="20">
-        <v>0</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="20">
-        <v>0</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="20">
-        <v>0</v>
-      </c>
-      <c r="U18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" s="20">
-        <v>0</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X18" s="20">
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14">
         <v>-1</v>
       </c>
-      <c r="Y18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="22" t="s">
+      <c r="Y18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AA18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="20">
+      <c r="AA18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="14">
         <v>1</v>
       </c>
-      <c r="AE18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="22" t="s">
+      <c r="AE18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AG18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="20">
+      <c r="AG18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="14">
         <v>0</v>
       </c>
       <c r="AK18" s="3" t="s">
@@ -4477,14 +4476,14 @@
       <c r="BO18" t="s">
         <v>14</v>
       </c>
-      <c r="BP18" s="18" t="s">
+      <c r="BP18" s="12" t="s">
         <v>91</v>
       </c>
       <c r="BQ18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -4513,85 +4512,85 @@
       <c r="I19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="20">
-        <v>0</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="20">
-        <v>0</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" s="20">
-        <v>0</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V19" s="20">
-        <v>0</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="20">
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="14">
         <v>-1</v>
       </c>
-      <c r="AC19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="22" t="s">
+      <c r="AC19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AG19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="20">
+      <c r="AG19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="14">
         <v>1</v>
       </c>
-      <c r="AI19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="20">
+      <c r="AI19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="14">
         <v>0</v>
       </c>
       <c r="AK19" s="3" t="s">
@@ -4684,14 +4683,14 @@
       <c r="BO19" t="s">
         <v>14</v>
       </c>
-      <c r="BP19" s="18" t="s">
+      <c r="BP19" s="12" t="s">
         <v>102</v>
       </c>
       <c r="BQ19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4720,85 +4719,85 @@
       <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="20">
-        <v>0</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="20">
-        <v>0</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="20">
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="14">
         <v>-1</v>
       </c>
-      <c r="AE20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="22" t="s">
+      <c r="AE20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AG20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="20">
+      <c r="AG20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="14">
         <v>1</v>
       </c>
       <c r="AK20" s="3" t="s">
@@ -4891,14 +4890,14 @@
       <c r="BO20" t="s">
         <v>14</v>
       </c>
-      <c r="BP20" s="18" t="s">
+      <c r="BP20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="BQ20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -5011,85 +5010,85 @@
       <c r="AK21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL21" s="20" t="s">
+      <c r="AL21" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AM21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN21" s="20" t="s">
+      <c r="AM21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AO21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP21" s="20" t="s">
+      <c r="AO21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AQ21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR21" s="20" t="s">
+      <c r="AQ21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AS21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="20" t="s">
+      <c r="AS21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AU21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ21" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL21" s="20">
+      <c r="AU21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL21" s="14">
         <v>0</v>
       </c>
       <c r="BM21" s="3" t="s">
@@ -5098,14 +5097,14 @@
       <c r="BO21" t="s">
         <v>14</v>
       </c>
-      <c r="BP21" s="18" t="s">
+      <c r="BP21" s="12" t="s">
         <v>154</v>
       </c>
       <c r="BQ21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5218,85 +5217,85 @@
       <c r="AK22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR22" s="20" t="s">
+      <c r="AL22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AS22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT22" s="20" t="s">
+      <c r="AS22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AU22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV22" s="20" t="s">
+      <c r="AU22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AW22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ22" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL22" s="20">
+      <c r="AW22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL22" s="14">
         <v>0</v>
       </c>
       <c r="BM22" s="3" t="s">
@@ -5305,14 +5304,14 @@
       <c r="BO22" t="s">
         <v>14</v>
       </c>
-      <c r="BP22" s="18" t="s">
+      <c r="BP22" s="12" t="s">
         <v>161</v>
       </c>
       <c r="BQ22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -5425,85 +5424,85 @@
       <c r="AK23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX23" s="20" t="s">
+      <c r="AL23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AY23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ23" s="20" t="s">
+      <c r="AY23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="BA23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB23" s="20" t="s">
+      <c r="BA23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="BC23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD23" s="20" t="s">
+      <c r="BC23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="BE23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF23" s="20" t="s">
+      <c r="BE23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF23" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="BG23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH23" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ23" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL23" s="20">
+      <c r="BG23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL23" s="14">
         <v>0</v>
       </c>
       <c r="BM23" s="3" t="s">
@@ -5512,14 +5511,14 @@
       <c r="BO23" t="s">
         <v>14</v>
       </c>
-      <c r="BP23" s="18" t="s">
+      <c r="BP23" s="12" t="s">
         <v>155</v>
       </c>
       <c r="BQ23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -5632,85 +5631,85 @@
       <c r="AK24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ24" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB24" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD24" s="20" t="s">
+      <c r="AL24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="BE24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF24" s="20" t="s">
+      <c r="BE24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="BG24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH24" s="20" t="s">
+      <c r="BG24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BI24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ24" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL24" s="20">
+      <c r="BI24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="14">
         <v>0</v>
       </c>
       <c r="BM24" s="3" t="s">
@@ -5719,14 +5718,14 @@
       <c r="BO24" t="s">
         <v>14</v>
       </c>
-      <c r="BP24" s="18" t="s">
+      <c r="BP24" s="12" t="s">
         <v>156</v>
       </c>
       <c r="BQ24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -5839,85 +5838,85 @@
       <c r="AK25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL25" s="20">
+      <c r="AL25" s="14">
         <v>1</v>
       </c>
-      <c r="AM25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP25" s="22" t="s">
+      <c r="AM25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AQ25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ25" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL25" s="20">
+      <c r="AQ25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL25" s="14">
         <v>0</v>
       </c>
       <c r="BM25" s="3" t="s">
@@ -5933,7 +5932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6046,85 +6045,85 @@
       <c r="AK26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL26" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN26" s="20">
+      <c r="AL26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="14">
         <v>1</v>
       </c>
-      <c r="AO26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP26" s="22" t="s">
+      <c r="AO26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="AQ26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT26" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV26" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX26" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ26" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL26" s="20">
+      <c r="AQ26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL26" s="14">
         <v>0</v>
       </c>
       <c r="BM26" s="3" t="s">
@@ -6133,14 +6132,14 @@
       <c r="BO26" t="s">
         <v>14</v>
       </c>
-      <c r="BP26" s="18" t="s">
+      <c r="BP26" s="12" t="s">
         <v>158</v>
       </c>
       <c r="BQ26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6253,85 +6252,85 @@
       <c r="AK27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL27" s="20">
+      <c r="AL27" s="14">
         <v>-1</v>
       </c>
-      <c r="AM27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP27" s="22" t="s">
+      <c r="AM27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AQ27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR27" s="20">
+      <c r="AQ27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="14">
         <v>1</v>
       </c>
-      <c r="AS27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV27" s="22" t="s">
+      <c r="AS27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="AW27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ27" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL27" s="20">
+      <c r="AW27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL27" s="14">
         <v>0</v>
       </c>
       <c r="BM27" s="3" t="s">
@@ -6340,14 +6339,14 @@
       <c r="BO27" t="s">
         <v>14</v>
       </c>
-      <c r="BP27" s="18" t="s">
+      <c r="BP27" s="12" t="s">
         <v>159</v>
       </c>
       <c r="BQ27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -6460,85 +6459,85 @@
       <c r="AK28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN28" s="20">
+      <c r="AL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="14">
         <v>-1</v>
       </c>
-      <c r="AO28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP28" s="22" t="s">
+      <c r="AO28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AQ28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="14">
         <v>1</v>
       </c>
-      <c r="AU28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV28" s="22" t="s">
+      <c r="AU28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="AW28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ28" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL28" s="20">
+      <c r="AW28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL28" s="14">
         <v>0</v>
       </c>
       <c r="BM28" s="3" t="s">
@@ -6547,14 +6546,14 @@
       <c r="BO28" t="s">
         <v>14</v>
       </c>
-      <c r="BP28" s="18" t="s">
+      <c r="BP28" s="12" t="s">
         <v>160</v>
       </c>
       <c r="BQ28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -6667,85 +6666,85 @@
       <c r="AK29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR29" s="20">
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="14">
         <v>-1</v>
       </c>
-      <c r="AS29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV29" s="22" t="s">
+      <c r="AS29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AW29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX29" s="20">
+      <c r="AW29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="14">
         <v>1</v>
       </c>
-      <c r="AY29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ29" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB29" s="22" t="s">
+      <c r="AY29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="BC29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD29" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF29" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH29" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ29" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL29" s="20">
+      <c r="BC29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL29" s="14">
         <v>0</v>
       </c>
       <c r="BM29" s="3" t="s">
@@ -6754,14 +6753,14 @@
       <c r="BO29" t="s">
         <v>14</v>
       </c>
-      <c r="BP29" s="18" t="s">
+      <c r="BP29" s="12" t="s">
         <v>162</v>
       </c>
       <c r="BQ29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6874,85 +6873,85 @@
       <c r="AK30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT30" s="20">
+      <c r="AL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="14">
         <v>-1</v>
       </c>
-      <c r="AU30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV30" s="22" t="s">
+      <c r="AU30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV30" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AW30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ30" s="20">
+      <c r="AW30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="14">
         <v>1</v>
       </c>
-      <c r="BA30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB30" s="22" t="s">
+      <c r="BA30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB30" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="BC30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD30" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF30" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH30" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ30" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL30" s="20">
+      <c r="BC30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL30" s="14">
         <v>0</v>
       </c>
       <c r="BM30" s="3" t="s">
@@ -6961,14 +6960,14 @@
       <c r="BO30" t="s">
         <v>14</v>
       </c>
-      <c r="BP30" s="18" t="s">
+      <c r="BP30" s="12" t="s">
         <v>163</v>
       </c>
       <c r="BQ30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -7081,85 +7080,85 @@
       <c r="AK31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX31" s="20">
+      <c r="AL31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX31" s="14">
         <v>-1</v>
       </c>
-      <c r="AY31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ31" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB31" s="22" t="s">
+      <c r="AY31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="BC31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD31" s="20">
+      <c r="BC31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD31" s="14">
         <v>1</v>
       </c>
-      <c r="BE31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF31" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH31" s="22" t="s">
+      <c r="BE31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH31" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="BI31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ31" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL31" s="20">
+      <c r="BI31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL31" s="14">
         <v>0</v>
       </c>
       <c r="BM31" s="3" t="s">
@@ -7168,14 +7167,14 @@
       <c r="BO31" t="s">
         <v>14</v>
       </c>
-      <c r="BP31" s="18" t="s">
+      <c r="BP31" s="12" t="s">
         <v>164</v>
       </c>
       <c r="BQ31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -7288,85 +7287,85 @@
       <c r="AK32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ32" s="20">
+      <c r="AL32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="14">
         <v>-1</v>
       </c>
-      <c r="BA32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB32" s="22" t="s">
+      <c r="BA32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB32" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="BC32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD32" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF32" s="20">
+      <c r="BC32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF32" s="14">
         <v>1</v>
       </c>
-      <c r="BG32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH32" s="22" t="s">
+      <c r="BG32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH32" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="BI32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ32" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL32" s="20">
+      <c r="BI32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL32" s="14">
         <v>0</v>
       </c>
       <c r="BM32" s="3" t="s">
@@ -7375,14 +7374,14 @@
       <c r="BO32" t="s">
         <v>14</v>
       </c>
-      <c r="BP32" s="18" t="s">
+      <c r="BP32" s="12" t="s">
         <v>165</v>
       </c>
       <c r="BQ32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -7495,85 +7494,85 @@
       <c r="AK33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ33" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB33" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD33" s="20">
+      <c r="AL33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD33" s="14">
         <v>-1</v>
       </c>
-      <c r="BE33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF33" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH33" s="22" t="s">
+      <c r="BE33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH33" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="BI33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ33" s="20">
+      <c r="BI33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ33" s="14">
         <v>1</v>
       </c>
-      <c r="BK33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL33" s="20">
+      <c r="BK33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL33" s="14">
         <v>0</v>
       </c>
       <c r="BM33" s="3" t="s">
@@ -7582,14 +7581,14 @@
       <c r="BO33" t="s">
         <v>14</v>
       </c>
-      <c r="BP33" s="18" t="s">
+      <c r="BP33" s="12" t="s">
         <v>166</v>
       </c>
       <c r="BQ33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -7702,85 +7701,85 @@
       <c r="AK34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ34" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB34" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD34" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF34" s="20">
+      <c r="AL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF34" s="14">
         <v>-1</v>
       </c>
-      <c r="BG34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH34" s="22" t="s">
+      <c r="BG34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH34" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="BI34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ34" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL34" s="20">
+      <c r="BI34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL34" s="14">
         <v>1</v>
       </c>
       <c r="BM34" s="5" t="s">
@@ -7789,78 +7788,83 @@
       <c r="BO34" t="s">
         <v>14</v>
       </c>
-      <c r="BP34" s="18" t="s">
+      <c r="BP34" s="12" t="s">
         <v>167</v>
       </c>
       <c r="BQ34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="D2:I2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
@@ -7869,11 +7873,6 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AX1:BM1"/>
     <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="D2:I2"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AL1:AW1"/>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirk\Google Drive\Enjoyment\Hobbies\GitHub Projects\QWOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9ABD60-EF80-43A6-8EE7-B37F8AB976E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316149EA-4A1B-2D4A-BDE8-3642E67435FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -672,6 +673,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,15 +689,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,247 +1007,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADBB4D-0045-EA4E-AF74-4D1AF6D1816D}">
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BH39" sqref="BH39"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:BM34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="54" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="54" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="54.375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="54.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="1.375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="1.625" customWidth="1"/>
-    <col min="67" max="67" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="1.6640625" customWidth="1"/>
+    <col min="67" max="67" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="20" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="20" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="20" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="20" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="22"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="18"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="17" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="17" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="17" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18" t="s">
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="17" t="s">
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18" t="s">
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18" t="s">
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="19"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="22"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -3678,8 +3679,8 @@
       <c r="G15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
+      <c r="H15" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>2</v>
@@ -3703,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>2</v>
@@ -3714,8 +3715,8 @@
       <c r="S15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T15" s="16" t="s">
-        <v>101</v>
+      <c r="T15" s="16">
+        <v>0</v>
       </c>
       <c r="U15" s="14" t="s">
         <v>2</v>
@@ -3862,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3880,13 +3881,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
+      <c r="H16" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2</v>
@@ -3916,13 +3917,13 @@
         <v>2</v>
       </c>
       <c r="R16" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="16" t="s">
-        <v>100</v>
+      <c r="T16" s="16">
+        <v>0</v>
       </c>
       <c r="U16" s="14" t="s">
         <v>2</v>
@@ -4069,7 +4070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>2</v>
@@ -6576,8 +6577,8 @@
       <c r="G29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
+      <c r="H29" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>2</v>
@@ -6685,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="AR29" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="14" t="s">
         <v>2</v>
@@ -6696,8 +6697,8 @@
       <c r="AU29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AV29" s="16" t="s">
-        <v>101</v>
+      <c r="AV29" s="16">
+        <v>0</v>
       </c>
       <c r="AW29" s="14" t="s">
         <v>2</v>
@@ -6760,7 +6761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6778,13 +6779,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
+      <c r="H30" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>2</v>
@@ -6898,13 +6899,13 @@
         <v>2</v>
       </c>
       <c r="AT30" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AV30" s="16" t="s">
-        <v>100</v>
+      <c r="AV30" s="16">
+        <v>0</v>
       </c>
       <c r="AW30" s="14" t="s">
         <v>2</v>
@@ -6967,7 +6968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -7860,11 +7861,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="D2:I2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
@@ -7876,6 +7872,11 @@
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316149EA-4A1B-2D4A-BDE8-3642E67435FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D35EB9-7662-F74B-81A6-E06CDB2EABE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="31 state" sheetId="1" r:id="rId1"/>
+    <sheet name="27 state" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="168">
   <si>
     <t>x</t>
   </si>
@@ -655,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -673,6 +675,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,11 +1012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADBB4D-0045-EA4E-AF74-4D1AF6D1816D}">
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:BM34"/>
+      <selection pane="bottomRight" activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,163 +1094,163 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="19" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="19" t="s">
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="19"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="20" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="20" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21" t="s">
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="20" t="s">
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21" t="s">
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21" t="s">
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="23"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -7880,4 +7885,5365 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3532AB1-6F5C-0A49-9952-799E8236C8D3}">
+  <dimension ref="A1:BI31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="BE31" sqref="BE31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="54" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="1.6640625" customWidth="1"/>
+    <col min="59" max="59" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="19"/>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="17"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE3" s="9"/>
+      <c r="BG3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B30" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH28" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AU29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AW30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB30" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD30" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH30" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="AT1:BE1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B1226-CDC4-6B41-B244-24EFBE289420}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D35EB9-7662-F74B-81A6-E06CDB2EABE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0E9EF-0AA0-D342-B1AA-258C8EF3BA3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
     <sheet name="31 state" sheetId="1" r:id="rId1"/>
     <sheet name="27 state" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="27 reduced" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="181">
   <si>
     <t>x</t>
   </si>
@@ -537,6 +538,45 @@
   </si>
   <si>
     <t>(l4-gamma4)*theta4ldot**2*np.cos(theta4l)</t>
+  </si>
+  <si>
+    <t>m2*(l1)*np.cos(theta1r)</t>
+  </si>
+  <si>
+    <t>m2*(l1)*np.sin(theta1r)</t>
+  </si>
+  <si>
+    <t>m4*(l3)*np.cos(theta3r)</t>
+  </si>
+  <si>
+    <t>m4*(l3)*np.sin(theta3r)</t>
+  </si>
+  <si>
+    <t>m2*(l1)*np.cos(theta1l)</t>
+  </si>
+  <si>
+    <t>m2*(l1)*np.sin(theta1l)</t>
+  </si>
+  <si>
+    <t>m4*(l3)*np.cos(theta3l)</t>
+  </si>
+  <si>
+    <t>m4*(l3)*np.sin(theta3l)</t>
+  </si>
+  <si>
+    <t>-m1*g*gamma1*np.sin(theta1r)-m2*g*(l1)*np.sin(theta1r)-k2*(theta1r+phi2r-theta2r)-c2*(theta1rdot-theta2rdot)+k1*(theta+phi1r-theta1r)+c1*(thetadot-theta1rdot)</t>
+  </si>
+  <si>
+    <t>-m3*g*gamma3*np.sin(theta3r)-m4*g*(l3)*np.sin(theta3r)-k4*(theta3r+phi4r-theta4r)-c4*(theta3rdot-theta4rdot)+k3*(theta+phi3r-theta3r)+c3*(thetadot-theta3rdot)+fFr*(l3)*np.cos(theta3r)+fNr*(l3)*np.sin(theta3r)</t>
+  </si>
+  <si>
+    <t>-m4*g*gamma4*np.sin(theta4r)+k4*(theta3r+phi4r-theta4r)+c4*(theta3rdot-theta4rdot)+fFr*(l4)*np.cos(theta4r)+fNr*(l4)*np.sin(theta4r)</t>
+  </si>
+  <si>
+    <t>-m1*g*gamma1*np.sin(theta1l)-m2*g*(l1)*np.sin(theta1l)-k2*(theta1l+phi2l-theta2l)-c2*(theta1ldot-theta2ldot)+k1*(theta+phi1l-theta1l)+c1*(thetadot-theta1ldot)</t>
+  </si>
+  <si>
+    <t>-m3*g*gamma3*np.sin(theta3l)-m4*g*(l3)*np.sin(theta3l)-k4*(theta3l+phi4l-theta4l)-c4*(theta3ldot-theta4ldot)+k3*(theta+phi3l-theta3l)+c3*(thetadot-theta3ldot)+fFl*(l3)*np.cos(theta3l)+fNl*(l3)*np.sin(theta3l)</t>
   </si>
 </sst>
 </file>
@@ -7891,11 +7931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3532AB1-6F5C-0A49-9952-799E8236C8D3}">
   <dimension ref="A1:BI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE31" sqref="BE31"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13157,7 +13197,7 @@
         <v>165</v>
       </c>
       <c r="BI30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
@@ -13237,6 +13277,5355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120BDED-982B-F34E-BD2B-CEA443C6FEC9}">
+  <dimension ref="A1:BI31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BH4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="BH21" sqref="BH21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="54" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="1.6640625" customWidth="1"/>
+    <col min="59" max="59" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="19"/>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="17"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE3" s="9"/>
+      <c r="BG3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B30" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB21" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH28" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AU29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AW30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB30" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD30" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH30" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="AT1:BE1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B1226-CDC4-6B41-B244-24EFBE289420}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0E9EF-0AA0-D342-B1AA-258C8EF3BA3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80E2C4-0B99-1248-8EE7-99C443F611AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="182">
   <si>
     <t>x</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>-m3*g*gamma3*np.sin(theta3l)-m4*g*(l3)*np.sin(theta3l)-k4*(theta3l+phi4l-theta4l)-c4*(theta3ldot-theta4ldot)+k3*(theta+phi3l-theta3l)+c3*(thetadot-theta3ldot)+fFl*(l3)*np.cos(theta3l)+fNl*(l3)*np.sin(theta3l)</t>
+  </si>
+  <si>
+    <t>-m4*g*gamma4*np.sin(theta4l)+k4*(theta3l+phi4l-theta4l)+c4*(theta3ldot-theta4ldot)+fFl*(l4)*np.cos(theta4l)+fNl*(l4)*np.sin(theta4l)</t>
   </si>
 </sst>
 </file>
@@ -13281,10 +13284,10 @@
   <dimension ref="A1:BI31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BH4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BH21" sqref="BH21"/>
+      <selection pane="bottomRight" activeCell="BE30" sqref="C4:BE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17079,7 +17082,7 @@
         <v>14</v>
       </c>
       <c r="BH22" s="12" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="BI22" t="s">
         <v>15</v>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80E2C4-0B99-1248-8EE7-99C443F611AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02028D24-7C0F-9C47-9C4B-520B13225597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
     <sheet name="31 state" sheetId="1" r:id="rId1"/>
     <sheet name="27 state" sheetId="3" r:id="rId2"/>
     <sheet name="27 reduced" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="11 equations" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="194">
   <si>
     <t>x</t>
   </si>
@@ -581,12 +582,48 @@
   <si>
     <t>-m4*g*gamma4*np.sin(theta4l)+k4*(theta3l+phi4l-theta4l)+c4*(theta3ldot-theta4ldot)+fFl*(l4)*np.cos(theta4l)+fNl*(l4)*np.sin(theta4l)</t>
   </si>
+  <si>
+    <t>Right Leg</t>
+  </si>
+  <si>
+    <t>m+2*m1+2*m2+2*m3+2*m4</t>
+  </si>
+  <si>
+    <t>-2*m1*gamma*np.cos(theta)-2*m2*gamma*np.cos(theta)+2*m3*(l-gamma)*np.cos(theta)+2*m4*(l-gamma)*np.cos(theta)</t>
+  </si>
+  <si>
+    <t>m1*gamma1*np.cos(theta1r)+m2*l1*np.cos(theta1r)</t>
+  </si>
+  <si>
+    <t>m1*gamma1*np.cos(theta1l)+m2*L1*np.cos(theta1l)</t>
+  </si>
+  <si>
+    <t>m3*(gamma3)*np.cos(theta3r)+m4*(l3)*np.cos(theta3r)</t>
+  </si>
+  <si>
+    <t>m3*(gamma3)*np.cos(theta3l)+m4*(l3)*np.cos(theta3l)</t>
+  </si>
+  <si>
+    <t>m2*gamma2*np.cos(thet2r)</t>
+  </si>
+  <si>
+    <t>m2*gamma2*np.cos(thet2l)</t>
+  </si>
+  <si>
+    <t>m4*gamma4*np.cos(thet4r)</t>
+  </si>
+  <si>
+    <t>m4*gamma4*np.cos(thet4l)</t>
+  </si>
+  <si>
+    <t>fFr+fFl-m1*gamma*thetadot**2*np.sin(theta)+m1*gamma1*thetadot1r**2*np.sin(theta1r)-m2*gamma*thetadot**2*np.sin(theta)+m2*l1*thetadot1r**2*np.sin(theta1r)+m2*gamma2*thetadot2r**2*np.sin(theta2r)+m3*(l-gamma)*thetadot**2*np.sin(theta)+m3*gamma3*thetadot3r**2*np.sin(theta3r)+m4*(l-gamma)*thetadot**2*np.sin(theta)+m4*l3*thetadot3r**2*np.sin(theta3r)+m4*gamma4*thetadot4r**2*np.sin(theta4r)-m1*gamma*thetadot**2*np.sin(theta)+m1*gamma1*thetadot1l**2*np.sin(theta1l)-m2*gamma*thetadot**2*np.sin(theta)+m2*l1*thetadot1l**2*np.sin(theta1l)+m2*gamma2*thetadot2l**2*np.sin(theta2l)+m3*(l-gamma)*thetadot**2*np.sin(theta)+m3*gamma3*thetadot3l**2*np.sin(theta3l)+m4*(l-gamma)*thetadot**2*np.sin(theta)+m4*l3*thetadot3l**2*np.sin(theta3l)+m4*gamma4*thetadot4l**2*np.sin(theta4l)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,6 +635,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -739,6 +783,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13283,7 +13329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120BDED-982B-F34E-BD2B-CEA443C6FEC9}">
   <dimension ref="A1:BI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -18629,6 +18675,1475 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DBB4D-9BB4-FC4D-AB7A-FD8E16FA5798}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="1.6640625" customWidth="1"/>
+    <col min="35" max="35" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AI3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B14" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B1226-CDC4-6B41-B244-24EFBE289420}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02028D24-7C0F-9C47-9C4B-520B13225597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7258E2-5AD6-BF4D-B028-0203DAE12E6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
@@ -18679,10 +18679,10 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7258E2-5AD6-BF4D-B028-0203DAE12E6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F7D37-93A9-3E48-A2CA-F001D78802D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="560" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
   <sheets>
     <sheet name="31 state" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -765,15 +766,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,8 +777,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,7 +1109,7 @@
       <selection pane="bottomRight" activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -1181,167 +1182,167 @@
     <col min="69" max="69" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69">
       <c r="C1" s="6"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="20" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="20" t="s">
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="19"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="25"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69">
       <c r="C2" s="1"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="21" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22" t="s">
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="21" t="s">
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22" t="s">
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" s="22"/>
-      <c r="BF2" s="22"/>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="22" t="s">
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="22"/>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="23"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="22"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69">
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -7955,6 +7956,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="D2:I2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
@@ -7966,11 +7972,6 @@
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7987,7 +7988,7 @@
       <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -8052,147 +8053,147 @@
     <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="C1" s="6"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="19"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="25"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="C2" s="1"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AH2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="21" t="s">
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22" t="s">
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
       <c r="BE2" s="17"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -9955,7 +9956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -10870,7 +10871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -11236,7 +11237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -13336,7 +13337,7 @@
       <selection pane="bottomRight" activeCell="BE30" sqref="C4:BE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -13401,147 +13402,147 @@
     <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="C1" s="6"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="19"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="25"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="C2" s="1"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AH2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="21" t="s">
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22" t="s">
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
       <c r="BE2" s="17"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -14023,7 +14024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -14206,7 +14207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -15121,7 +15122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -15853,7 +15854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -16036,7 +16037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -16219,7 +16220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -16585,7 +16586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -17134,7 +17135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -17500,7 +17501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -18049,7 +18050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -18232,7 +18233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -18415,7 +18416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -18598,7 +18599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -18685,7 +18686,7 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -18718,99 +18719,99 @@
     <col min="37" max="37" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37">
       <c r="C1" s="6"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="18" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="25"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="C2" s="1"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="22" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -18902,7 +18903,7 @@
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="18" t="s">
         <v>185</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -18929,7 +18930,7 @@
       <c r="S4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="19" t="s">
         <v>191</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -18965,7 +18966,7 @@
       <c r="AE4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF4" s="25" t="s">
+      <c r="AF4" s="19" t="s">
         <v>192</v>
       </c>
       <c r="AG4" s="3" t="s">
@@ -18981,7 +18982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -19092,7 +19093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -19314,7 +19315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -19425,7 +19426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -19536,7 +19537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -19647,7 +19648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -19758,7 +19759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -19869,7 +19870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -20091,7 +20092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37">
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -20124,20 +20125,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20149,7 +20150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/full dynamics.xlsx
+++ b/full dynamics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephaneMagnan/Documents/GitHub/QWOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F7D37-93A9-3E48-A2CA-F001D78802D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6C9A0-CE37-0D4F-899F-DC89528DB6BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{28E72DDC-E907-8543-92E7-F3D54FAF7A29}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="240">
   <si>
     <t>x</t>
   </si>
@@ -584,47 +583,185 @@
     <t>-m4*g*gamma4*np.sin(theta4l)+k4*(theta3l+phi4l-theta4l)+c4*(theta3ldot-theta4ldot)+fFl*(l4)*np.cos(theta4l)+fNl*(l4)*np.sin(theta4l)</t>
   </si>
   <si>
-    <t>Right Leg</t>
-  </si>
-  <si>
-    <t>m+2*m1+2*m2+2*m3+2*m4</t>
-  </si>
-  <si>
-    <t>-2*m1*gamma*np.cos(theta)-2*m2*gamma*np.cos(theta)+2*m3*(l-gamma)*np.cos(theta)+2*m4*(l-gamma)*np.cos(theta)</t>
-  </si>
-  <si>
-    <t>m1*gamma1*np.cos(theta1r)+m2*l1*np.cos(theta1r)</t>
-  </si>
-  <si>
-    <t>m1*gamma1*np.cos(theta1l)+m2*L1*np.cos(theta1l)</t>
-  </si>
-  <si>
-    <t>m3*(gamma3)*np.cos(theta3r)+m4*(l3)*np.cos(theta3r)</t>
-  </si>
-  <si>
-    <t>m3*(gamma3)*np.cos(theta3l)+m4*(l3)*np.cos(theta3l)</t>
-  </si>
-  <si>
-    <t>m2*gamma2*np.cos(thet2r)</t>
-  </si>
-  <si>
-    <t>m2*gamma2*np.cos(thet2l)</t>
-  </si>
-  <si>
-    <t>m4*gamma4*np.cos(thet4r)</t>
-  </si>
-  <si>
-    <t>m4*gamma4*np.cos(thet4l)</t>
-  </si>
-  <si>
-    <t>fFr+fFl-m1*gamma*thetadot**2*np.sin(theta)+m1*gamma1*thetadot1r**2*np.sin(theta1r)-m2*gamma*thetadot**2*np.sin(theta)+m2*l1*thetadot1r**2*np.sin(theta1r)+m2*gamma2*thetadot2r**2*np.sin(theta2r)+m3*(l-gamma)*thetadot**2*np.sin(theta)+m3*gamma3*thetadot3r**2*np.sin(theta3r)+m4*(l-gamma)*thetadot**2*np.sin(theta)+m4*l3*thetadot3r**2*np.sin(theta3r)+m4*gamma4*thetadot4r**2*np.sin(theta4r)-m1*gamma*thetadot**2*np.sin(theta)+m1*gamma1*thetadot1l**2*np.sin(theta1l)-m2*gamma*thetadot**2*np.sin(theta)+m2*l1*thetadot1l**2*np.sin(theta1l)+m2*gamma2*thetadot2l**2*np.sin(theta2l)+m3*(l-gamma)*thetadot**2*np.sin(theta)+m3*gamma3*thetadot3l**2*np.sin(theta3l)+m4*(l-gamma)*thetadot**2*np.sin(theta)+m4*l3*thetadot3l**2*np.sin(theta3l)+m4*gamma4*thetadot4l**2*np.sin(theta4l)</t>
+    <t>﻿m + 2*m1 + 2*m2 + 2*m3 + 2*m4</t>
+  </si>
+  <si>
+    <t>﻿-2*gamma*m1*cos(theta) - 2*gamma*m2*cos(theta) - 2*gamma*m3*cos(theta) - 2*gamma*m4*cos(theta) + 2*l*m3*cos(theta) + 2*l*m4*cos(theta)</t>
+  </si>
+  <si>
+    <t>﻿gamma1*m1*cos(theta1r) + l1*m2*cos(theta1r)</t>
+  </si>
+  <si>
+    <t>﻿gamma2*m2*cos(theta2r)</t>
+  </si>
+  <si>
+    <t>﻿gamma3*m3*cos(theta3r) + l3*m4*cos(theta3r)</t>
+  </si>
+  <si>
+    <t>﻿gamma4*m4*cos(theta4r)</t>
+  </si>
+  <si>
+    <t>﻿gamma1*m1*cos(theta1l) + l1*m2*cos(theta1l)</t>
+  </si>
+  <si>
+    <t>﻿gamma2*m2*cos(theta2l)</t>
+  </si>
+  <si>
+    <t>﻿gamma3*m3*cos(theta3l) + l3*m4*cos(theta3l)</t>
+  </si>
+  <si>
+    <t>﻿gamma4*m4*cos(theta4l)</t>
+  </si>
+  <si>
+    <t>﻿fFl + fFr - 2*gamma*m1*thetadot**2*sin(theta) - 2*gamma*m2*thetadot**2*sin(theta) - 2*gamma*m3*thetadot**2*sin(theta) - 2*gamma*m4*thetadot**2*sin(theta) + gamma1*m1*theta1ldot**2*sin(theta1l) + gamma1*m1*theta1rdot**2*sin(theta1r) + gamma2*m2*theta2ldot**2*sin(theta2l) + gamma2*m2*theta2rdot**2*sin(theta2r) + gamma3*m3*theta3ldot**2*sin(theta3l) + gamma3*m3*theta3rdot**2*sin(theta3r) + gamma4*m4*theta4ldot**2*sin(theta4l) + gamma4*m4*theta4rdot**2*sin(theta4r) + 2*l*m3*thetadot**2*sin(theta) + 2*l*m4*thetadot**2*sin(theta) + l1*m2*theta1ldot**2*sin(theta1l) + l1*m2*theta1rdot**2*sin(theta1r) + l3*m4*theta3ldot**2*sin(theta3l) + l3*m4*theta3rdot**2*sin(theta3r)</t>
+  </si>
+  <si>
+    <t>﻿-2*gamma*m1*sin(theta) - 2*gamma*m2*sin(theta) - 2*gamma*m3*sin(theta) - 2*gamma*m4*sin(theta) + 2*l*m3*sin(theta) + 2*l*m4*sin(theta)</t>
+  </si>
+  <si>
+    <t>﻿gamma1*m1*sin(theta1r) + l1*m2*sin(theta1r)</t>
+  </si>
+  <si>
+    <t>﻿gamma2*m2*sin(theta2r)</t>
+  </si>
+  <si>
+    <t>﻿gamma3*m3*sin(theta3r) + l3*m4*sin(theta3r)</t>
+  </si>
+  <si>
+    <t>﻿gamma4*m4*sin(theta4r)</t>
+  </si>
+  <si>
+    <t>﻿gamma1*m1*sin(theta1l) + l1*m2*sin(theta1l)</t>
+  </si>
+  <si>
+    <t>﻿gamma2*m2*sin(theta2l)</t>
+  </si>
+  <si>
+    <t>﻿gamma3*m3*sin(theta3l) + l3*m4*sin(theta3l)</t>
+  </si>
+  <si>
+    <t>﻿gamma4*m4*sin(theta4l)</t>
+  </si>
+  <si>
+    <t>﻿fNl + fNr - g*m - 2*g*m1 - 2*g*m2 - 2*g*m3 - 2*g*m4 + 2*gamma*m1*thetadot**2*cos(theta) + 2*gamma*m2*thetadot**2*cos(theta) + 2*gamma*m3*thetadot**2*cos(theta) + 2*gamma*m4*thetadot**2*cos(theta) - gamma1*m1*theta1ldot**2*cos(theta1l) - gamma1*m1*theta1rdot**2*cos(theta1r) - gamma2*m2*theta2ldot**2*cos(theta2l) - gamma2*m2*theta2rdot**2*cos(theta2r) - gamma3*m3*theta3ldot**2*cos(theta3l) - gamma3*m3*theta3rdot**2*cos(theta3r) - gamma4*m4*theta4ldot**2*cos(theta4l) - gamma4*m4*theta4rdot**2*cos(theta4r) - 2*l*m3*thetadot**2*cos(theta) - 2*l*m4*thetadot**2*cos(theta) - l1*m2*theta1ldot**2*cos(theta1l) - l1*m2*theta1rdot**2*cos(theta1r) - l3*m4*theta3ldot**2*cos(theta3l) - l3*m4*theta3rdot**2*cos(theta3r)</t>
+  </si>
+  <si>
+    <t>﻿I + 2*gamma**2*m1*sin(theta)**2 + 2*gamma**2*m1*cos(theta)**2 + 2*gamma**2*m2*sin(theta)**2 + 2*gamma**2*m2*cos(theta)**2 + 2*gamma**2*m3*sin(theta)**2 + 2*gamma**2*m3*cos(theta)**2 + 2*gamma**2*m4*sin(theta)**2 + 2*gamma**2*m4*cos(theta)**2 - 4*gamma*l*m3*sin(theta)**2 - 4*gamma*l*m3*cos(theta)**2 - 4*gamma*l*m4*sin(theta)**2 - 4*gamma*l*m4*cos(theta)**2 + 2*l**2*m3*sin(theta)**2 + 2*l**2*m3*cos(theta)**2 + 2*l**2*m4*sin(theta)**2 + 2*l**2*m4*cos(theta)**2</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma1*m1*sin(theta)*sin(theta1r) - gamma*gamma1*m1*cos(theta)*cos(theta1r) - gamma*l1*m2*sin(theta)*sin(theta1r) - gamma*l1*m2*cos(theta)*cos(theta1r)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma2*m2*sin(theta)*sin(theta2r) - gamma*gamma2*m2*cos(theta)*cos(theta2r)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma3*m3*sin(theta)*sin(theta3r) - gamma*gamma3*m3*cos(theta)*cos(theta3r) - gamma*l3*m4*sin(theta)*sin(theta3r) - gamma*l3*m4*cos(theta)*cos(theta3r) + gamma3*l*m3*sin(theta)*sin(theta3r) + gamma3*l*m3*cos(theta)*cos(theta3r) + l*l3*m4*sin(theta)*sin(theta3r) + l*l3*m4*cos(theta)*cos(theta3r)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma4*m4*sin(theta)*sin(theta4r) - gamma*gamma4*m4*cos(theta)*cos(theta4r) + gamma4*l*m4*sin(theta)*sin(theta4r) + gamma4*l*m4*cos(theta)*cos(theta4r)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma1*m1*sin(theta)*sin(theta1l) - gamma*gamma1*m1*cos(theta)*cos(theta1l) - gamma*l1*m2*sin(theta)*sin(theta1l) - gamma*l1*m2*cos(theta)*cos(theta1l)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma2*m2*sin(theta)*sin(theta2l) - gamma*gamma2*m2*cos(theta)*cos(theta2l)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma3*m3*sin(theta)*sin(theta3l) - gamma*gamma3*m3*cos(theta)*cos(theta3l) - gamma*l3*m4*sin(theta)*sin(theta3l) - gamma*l3*m4*cos(theta)*cos(theta3l) + gamma3*l*m3*sin(theta)*sin(theta3l) + gamma3*l*m3*cos(theta)*cos(theta3l) + l*l3*m4*sin(theta)*sin(theta3l) + l*l3*m4*cos(theta)*cos(theta3l)</t>
+  </si>
+  <si>
+    <t>﻿-gamma*gamma4*m4*sin(theta)*sin(theta4l) - gamma*gamma4*m4*cos(theta)*cos(theta4l) + gamma4*l*m4*sin(theta)*sin(theta4l) + gamma4*l*m4*cos(theta)*cos(theta4l)</t>
+  </si>
+  <si>
+    <t>﻿c1*theta1ldot + c1*theta1rdot - 2*c1*thetadot + c3*theta3ldot + c3*theta3rdot - 2*c3*thetadot - fFl*gamma*cos(theta) + fFl*l*cos(theta) - fFr*gamma*cos(theta) + fFr*l*cos(theta) - fNl*gamma*sin(theta) + fNl*l*sin(theta) - fNr*gamma*sin(theta) + fNr*l*sin(theta) + 2*g*gamma*m1*sin(theta) + 2*g*gamma*m2*sin(theta) + 2*g*gamma*m3*sin(theta) + 2*g*gamma*m4*sin(theta) - 2*g*l*m3*sin(theta) - 2*g*l*m4*sin(theta) + gamma*gamma1*m1*theta1ldot**2*sin(theta)*cos(theta1l) - gamma*gamma1*m1*theta1ldot**2*sin(theta1l)*cos(theta) + gamma*gamma1*m1*theta1rdot**2*sin(theta)*cos(theta1r) - gamma*gamma1*m1*theta1rdot**2*sin(theta1r)*cos(theta) + gamma*gamma2*m2*theta2ldot**2*sin(theta)*cos(theta2l) - gamma*gamma2*m2*theta2ldot**2*sin(theta2l)*cos(theta) + gamma*gamma2*m2*theta2rdot**2*sin(theta)*cos(theta2r) - gamma*gamma2*m2*theta2rdot**2*sin(theta2r)*cos(theta) + gamma*gamma3*m3*theta3ldot**2*sin(theta)*cos(theta3l) - gamma*gamma3*m3*theta3ldot**2*sin(theta3l)*cos(theta) + gamma*gamma3*m3*theta3rdot**2*sin(theta)*cos(theta3r) - gamma*gamma3*m3*theta3rdot**2*sin(theta3r)*cos(theta) + gamma*gamma4*m4*theta4ldot**2*sin(theta)*cos(theta4l) - gamma*gamma4*m4*theta4ldot**2*sin(theta4l)*cos(theta) + gamma*gamma4*m4*theta4rdot**2*sin(theta)*cos(theta4r) - gamma*gamma4*m4*theta4rdot**2*sin(theta4r)*cos(theta) + gamma*l1*m2*theta1ldot**2*sin(theta)*cos(theta1l) - gamma*l1*m2*theta1ldot**2*sin(theta1l)*cos(theta) + gamma*l1*m2*theta1rdot**2*sin(theta)*cos(theta1r) - gamma*l1*m2*theta1rdot**2*sin(theta1r)*cos(theta) + gamma*l3*m4*theta3ldot**2*sin(theta)*cos(theta3l) - gamma*l3*m4*theta3ldot**2*sin(theta3l)*cos(theta) + gamma*l3*m4*theta3rdot**2*sin(theta)*cos(theta3r) - gamma*l3*m4*theta3rdot**2*sin(theta3r)*cos(theta) - gamma3*l*m3*theta3ldot**2*sin(theta)*cos(theta3l) + gamma3*l*m3*theta3ldot**2*sin(theta3l)*cos(theta) - gamma3*l*m3*theta3rdot**2*sin(theta)*cos(theta3r) + gamma3*l*m3*theta3rdot**2*sin(theta3r)*cos(theta) - gamma4*l*m4*theta4ldot**2*sin(theta)*cos(theta4l) + gamma4*l*m4*theta4ldot**2*sin(theta4l)*cos(theta) - gamma4*l*m4*theta4rdot**2*sin(theta)*cos(theta4r) + gamma4*l*m4*theta4rdot**2*sin(theta4r)*cos(theta) - k1*phi1l - k1*phi1r - 2*k1*theta + k1*theta1l + k1*theta1r - k3*phi3l - k3*phi3r - 2*k3*theta + k3*theta3l + k3*theta3r - l*l3*m4*theta3ldot**2*sin(theta)*cos(theta3l) + l*l3*m4*theta3ldot**2*sin(theta3l)*cos(theta) - l*l3*m4*theta3rdot**2*sin(theta)*cos(theta3r) + l*l3*m4*theta3rdot**2*sin(theta3r)*cos(theta)</t>
+  </si>
+  <si>
+    <t>﻿I1 + gamma1**2*m1*sin(theta1r)**2 + gamma1**2*m1*cos(theta1r)**2 + l1**2*m2*sin(theta1r)**2 + l1**2*m2*cos(theta1r)**2</t>
+  </si>
+  <si>
+    <t>﻿gamma2*l1*m2*sin(theta1r)*sin(theta2r) + gamma2*l1*m2*cos(theta1r)*cos(theta2r)</t>
+  </si>
+  <si>
+    <t>﻿-c1*theta1rdot + c1*thetadot - c2*theta1rdot + c2*theta2rdot - g*gamma1*m1*sin(theta1r) - g*l1*m2*sin(theta1r) - gamma*gamma1*m1*thetadot**2*sin(theta)*cos(theta1r) + gamma*gamma1*m1*thetadot**2*sin(theta1r)*cos(theta) - gamma*l1*m2*thetadot**2*sin(theta)*cos(theta1r) + gamma*l1*m2*thetadot**2*sin(theta1r)*cos(theta) - gamma2*l1*m2*theta2rdot**2*sin(theta1r)*cos(theta2r) + gamma2*l1*m2*theta2rdot**2*sin(theta2r)*cos(theta1r) + k1*phi1r + k1*theta - k1*theta1r - k2*phi2r - k2*theta1r + k2*theta2r</t>
+  </si>
+  <si>
+    <t>﻿I2 + gamma2**2*m2*sin(theta2r)**2 + gamma2**2*m2*cos(theta2r)**2</t>
+  </si>
+  <si>
+    <t>﻿c2*theta1rdot - c2*theta2rdot - g*gamma2*m2*sin(theta2r) - gamma*gamma2*m2*thetadot**2*sin(theta)*cos(theta2r) + gamma*gamma2*m2*thetadot**2*sin(theta2r)*cos(theta) + gamma2*l1*m2*theta1rdot**2*sin(theta1r)*cos(theta2r) - gamma2*l1*m2*theta1rdot**2*sin(theta2r)*cos(theta1r) + k2*phi2r + k2*theta1r - k2*theta2r</t>
+  </si>
+  <si>
+    <t>﻿I3 + gamma3**2*m3*sin(theta3r)**2 + gamma3**2*m3*cos(theta3r)**2 + l3**2*m4*sin(theta3r)**2 + l3**2*m4*cos(theta3r)**2</t>
+  </si>
+  <si>
+    <t>﻿gamma4*l3*m4*sin(theta3r)*sin(theta4r) + gamma4*l3*m4*cos(theta3r)*cos(theta4r)</t>
+  </si>
+  <si>
+    <t>﻿-c3*theta3rdot + c3*thetadot - c4*theta3rdot + c4*theta4rdot + fFr*l3*cos(theta3r) + fNr*l3*sin(theta3r) - g*gamma3*m3*sin(theta3r) - g*l3*m4*sin(theta3r) - gamma*gamma3*m3*thetadot**2*sin(theta)*cos(theta3r) + gamma*gamma3*m3*thetadot**2*sin(theta3r)*cos(theta) - gamma*l3*m4*thetadot**2*sin(theta)*cos(theta3r) + gamma*l3*m4*thetadot**2*sin(theta3r)*cos(theta) + gamma3*l*m3*thetadot**2*sin(theta)*cos(theta3r) - gamma3*l*m3*thetadot**2*sin(theta3r)*cos(theta) - gamma4*l3*m4*theta4rdot**2*sin(theta3r)*cos(theta4r) + gamma4*l3*m4*theta4rdot**2*sin(theta4r)*cos(theta3r) + k3*phi3r + k3*theta - k3*theta3r - k4*phi4r - k4*theta3r + k4*theta4r + l*l3*m4*thetadot**2*sin(theta)*cos(theta3r) - l*l3*m4*thetadot**2*sin(theta3r)*cos(theta)</t>
+  </si>
+  <si>
+    <t>﻿I4 + gamma4**2*m4*sin(theta4r)**2 + gamma4**2*m4*cos(theta4r)**2</t>
+  </si>
+  <si>
+    <t>﻿c4*theta3rdot - c4*theta4rdot + fFr*l4*cos(theta4r) + fNr*l4*sin(theta4r) - g*gamma4*m4*sin(theta4r) - gamma*gamma4*m4*thetadot**2*sin(theta)*cos(theta4r) + gamma*gamma4*m4*thetadot**2*sin(theta4r)*cos(theta) + gamma4*l*m4*thetadot**2*sin(theta)*cos(theta4r) - gamma4*l*m4*thetadot**2*sin(theta4r)*cos(theta) + gamma4*l3*m4*theta3rdot**2*sin(theta3r)*cos(theta4r) - gamma4*l3*m4*theta3rdot**2*sin(theta4r)*cos(theta3r) + k4*phi4r + k4*theta3r - k4*theta4r</t>
+  </si>
+  <si>
+    <t>﻿I1 + gamma1**2*m1*sin(theta1l)**2 + gamma1**2*m1*cos(theta1l)**2 + l1**2*m2*sin(theta1l)**2 + l1**2*m2*cos(theta1l)**2</t>
+  </si>
+  <si>
+    <t>﻿gamma2*l1*m2*sin(theta1l)*sin(theta2l) + gamma2*l1*m2*cos(theta1l)*cos(theta2l)</t>
+  </si>
+  <si>
+    <t>﻿-c1*theta1ldot + c1*thetadot - c2*theta1ldot + c2*theta2ldot - g*gamma1*m1*sin(theta1l) - g*l1*m2*sin(theta1l) - gamma*gamma1*m1*thetadot**2*sin(theta)*cos(theta1l) + gamma*gamma1*m1*thetadot**2*sin(theta1l)*cos(theta) - gamma*l1*m2*thetadot**2*sin(theta)*cos(theta1l) + gamma*l1*m2*thetadot**2*sin(theta1l)*cos(theta) - gamma2*l1*m2*theta2ldot**2*sin(theta1l)*cos(theta2l) + gamma2*l1*m2*theta2ldot**2*sin(theta2l)*cos(theta1l) + k1*phi1l + k1*theta - k1*theta1l - k2*phi2l - k2*theta1l + k2*theta2l</t>
+  </si>
+  <si>
+    <t>﻿I2 + gamma2**2*m2*sin(theta2l)**2 + gamma2**2*m2*cos(theta2l)**2</t>
+  </si>
+  <si>
+    <t>﻿c2*theta1ldot - c2*theta2ldot - g*gamma2*m2*sin(theta2l) - gamma*gamma2*m2*thetadot**2*sin(theta)*cos(theta2l) + gamma*gamma2*m2*thetadot**2*sin(theta2l)*cos(theta) + gamma2*l1*m2*theta1ldot**2*sin(theta1l)*cos(theta2l) - gamma2*l1*m2*theta1ldot**2*sin(theta2l)*cos(theta1l) + k2*phi2l + k2*theta1l - k2*theta2l</t>
+  </si>
+  <si>
+    <t>﻿I3 + gamma3**2*m3*sin(theta3l)**2 + gamma3**2*m3*cos(theta3l)**2 + l3**2*m4*sin(theta3l)**2 + l3**2*m4*cos(theta3l)**2</t>
+  </si>
+  <si>
+    <t>﻿gamma4*l3*m4*sin(theta3l)*sin(theta4l) + gamma4*l3*m4*cos(theta3l)*cos(theta4l)</t>
+  </si>
+  <si>
+    <t>﻿-c3*theta3ldot + c3*thetadot - c4*theta3ldot + c4*theta4ldot + fFl*l3*cos(theta3l) + fNl*l3*sin(theta3l) - g*gamma3*m3*sin(theta3l) - g*l3*m4*sin(theta3l) - gamma*gamma3*m3*thetadot**2*sin(theta)*cos(theta3l) + gamma*gamma3*m3*thetadot**2*sin(theta3l)*cos(theta) - gamma*l3*m4*thetadot**2*sin(theta)*cos(theta3l) + gamma*l3*m4*thetadot**2*sin(theta3l)*cos(theta) + gamma3*l*m3*thetadot**2*sin(theta)*cos(theta3l) - gamma3*l*m3*thetadot**2*sin(theta3l)*cos(theta) - gamma4*l3*m4*theta4ldot**2*sin(theta3l)*cos(theta4l) + gamma4*l3*m4*theta4ldot**2*sin(theta4l)*cos(theta3l) + k3*phi3l + k3*theta - k3*theta3l - k4*phi4l - k4*theta3l + k4*theta4l + l*l3*m4*thetadot**2*sin(theta)*cos(theta3l) - l*l3*m4*thetadot**2*sin(theta3l)*cos(theta)</t>
+  </si>
+  <si>
+    <t>﻿I4 + gamma4**2*m4*sin(theta4l)**2 + gamma4**2*m4*cos(theta4l)**2</t>
+  </si>
+  <si>
+    <t>﻿c4*theta3ldot - c4*theta4ldot + fFl*l4*cos(theta4l) + fNl*l4*sin(theta4l) - g*gamma4*m4*sin(theta4l) - gamma*gamma4*m4*thetadot**2*sin(theta)*cos(theta4l) + gamma*gamma4*m4*thetadot**2*sin(theta4l)*cos(theta) + gamma4*l*m4*thetadot**2*sin(theta)*cos(theta4l) - gamma4*l*m4*thetadot**2*sin(theta4l)*cos(theta) + gamma4*l3*m4*theta3ldot**2*sin(theta3l)*cos(theta4l) - gamma4*l3*m4*theta3ldot**2*sin(theta4l)*cos(theta3l) + k4*phi4l + k4*theta3l - k4*theta4l</t>
+  </si>
+  <si>
+    <t>RIGHT ARM</t>
+  </si>
+  <si>
+    <t>PROXIMAL</t>
+  </si>
+  <si>
+    <t>DISTAL</t>
+  </si>
+  <si>
+    <t>RIGHT LEG</t>
+  </si>
+  <si>
+    <t>LEFT ARM</t>
+  </si>
+  <si>
+    <t>LEFT LEG</t>
+  </si>
+  <si>
+    <t>BODY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,13 +773,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -745,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -766,8 +896,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,15 +912,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1237,7 @@
       <selection pane="bottomRight" activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -1182,167 +1310,167 @@
     <col min="69" max="69" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="23" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="23" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="23" t="s">
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="25"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="19"/>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="20" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="20" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21" t="s">
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="20" t="s">
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21" t="s">
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21" t="s">
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="23"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1681,7 +1809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1888,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2095,7 +2223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2302,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2509,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2716,7 +2844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2923,7 +3051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3130,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -3337,7 +3465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -3544,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -3751,7 +3879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -3958,7 +4086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -4165,7 +4293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4579,7 +4707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -4786,7 +4914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4993,7 +5121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -5200,7 +5328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5407,7 +5535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -5614,7 +5742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -5821,7 +5949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -6028,7 +6156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6235,7 +6363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6442,7 +6570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -6649,7 +6777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -6856,7 +6984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7063,7 +7191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -7270,7 +7398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -7477,7 +7605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -7684,7 +7812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -7891,7 +8019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -7956,11 +8084,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="D2:I2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
@@ -7972,6 +8095,11 @@
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7988,7 +8116,7 @@
       <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -8053,147 +8181,147 @@
     <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="23" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="23" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="25"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="19"/>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="20" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="20" t="s">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21" t="s">
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
       <c r="BE2" s="17"/>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -8310,7 +8438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -8492,7 +8620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8675,7 +8803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -8858,7 +8986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -9041,7 +9169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -9224,7 +9352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9407,7 +9535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -9590,7 +9718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9773,7 +9901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -9956,7 +10084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -10139,7 +10267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -10322,7 +10450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -10505,7 +10633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -10688,7 +10816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:61">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -10871,7 +10999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:61">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11054,7 +11182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:61">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -11237,7 +11365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:61">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -11420,7 +11548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:61">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -11603,7 +11731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:61">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -11786,7 +11914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -11969,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -12152,7 +12280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -12335,7 +12463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -12518,7 +12646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -12701,7 +12829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -12884,7 +13012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -13067,7 +13195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -13250,7 +13378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -13331,13 +13459,13 @@
   <dimension ref="A1:BI31"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE30" sqref="C4:BE30"/>
+      <selection pane="bottomRight" activeCell="AX31" sqref="AX31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -13402,147 +13530,147 @@
     <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="23" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="23" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="25"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="19"/>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="20" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="20" t="s">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21" t="s">
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
       <c r="BE2" s="17"/>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -13659,7 +13787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13841,7 +13969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -14024,7 +14152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -14207,7 +14335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -14390,7 +14518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -14573,7 +14701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -14756,7 +14884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -14939,7 +15067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -15122,7 +15250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -15305,7 +15433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -15488,7 +15616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -15671,7 +15799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -15854,7 +15982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -16037,7 +16165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:61">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -16220,7 +16348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:61">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -16403,7 +16531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:61">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -16586,7 +16714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:61">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -16769,7 +16897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:61">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -16952,7 +17080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:61">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -17135,7 +17263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -17318,7 +17446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -17501,7 +17629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -17684,7 +17812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -17867,7 +17995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -18050,7 +18178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -18233,7 +18361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -18416,7 +18544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -18599,7 +18727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -18677,16 +18805,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DBB4D-9BB4-FC4D-AB7A-FD8E16FA5798}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -18696,122 +18824,106 @@
     <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="1.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="1.6640625" customWidth="1"/>
-    <col min="35" max="35" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="27" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C1" s="6"/>
-      <c r="D1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="25"/>
+      <c r="D1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22" t="s">
+        <v>234</v>
+      </c>
       <c r="O2" s="22"/>
-      <c r="P2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y2" s="23"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -18828,51 +18940,43 @@
         <v>33</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="9"/>
-      <c r="AI3" t="s">
+      <c r="Y3" s="9"/>
+      <c r="AA3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -18883,106 +18987,82 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="19" t="s">
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>2</v>
+      <c r="Y4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>13</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -19000,100 +19080,76 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
+      <c r="H5" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
+      <c r="T5" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>2</v>
+        <v>201</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>14</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC5" t="s">
         <v>15</v>
       </c>
-      <c r="AI5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -19104,107 +19160,83 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
+      <c r="F6" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
+      <c r="T6" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>2</v>
+        <v>211</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>14</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC6" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -19215,107 +19247,83 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="F7" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
+      <c r="H7" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>2</v>
+      <c r="J7" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>2</v>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC7" t="s">
         <v>15</v>
       </c>
-      <c r="AI7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -19326,107 +19334,83 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
+      <c r="F8" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="H8" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="14">
+      <c r="J8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>2</v>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>14</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC8" t="s">
         <v>15</v>
       </c>
-      <c r="AI8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -19437,107 +19421,83 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="H9" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="14">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>2</v>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC9" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -19548,107 +19508,83 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
+      <c r="F10" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="H10" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>66</v>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>2</v>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC10" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -19659,107 +19595,83 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="D11" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
+      <c r="F11" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
+      <c r="H11" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
+      <c r="O11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>2</v>
+        <v>223</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AA11" t="s">
         <v>14</v>
       </c>
-      <c r="AJ11" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AB11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -19770,107 +19682,83 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
+      <c r="F12" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
+      <c r="H12" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
+      <c r="O12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AA12" t="s">
         <v>14</v>
       </c>
-      <c r="AJ12" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AB12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -19881,107 +19769,83 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
+      <c r="F13" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
+      <c r="H13" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3" t="s">
+      <c r="U13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AA13" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AB13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -19992,107 +19856,83 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
+      <c r="D14" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
+      <c r="F14" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
+      <c r="H14" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="2" t="s">
+      <c r="O14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" s="3" t="s">
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC14" t="s">
         <v>15</v>
       </c>
-      <c r="AI14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -20114,31 +19954,23 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20150,7 +19982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
